--- a/biology/Zoologie/Calliophis_maculiceps/Calliophis_maculiceps.xlsx
+++ b/biology/Zoologie/Calliophis_maculiceps/Calliophis_maculiceps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calliophis maculiceps est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calliophis maculiceps est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre pratiquement partout en Birmanie, en Thaïlande, au Laos, au Cambodge, au Viêt Nam et en Malaisie occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre pratiquement partout en Birmanie, en Thaïlande, au Laos, au Cambodge, au Viêt Nam et en Malaisie occidentale.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le calliphis maculiceps est un petit serpent corail qui ne mesure qu'une trentaine de centimètres.
 Il possède un venin neurotoxique potentiellement très dangereux mais heureusement il ne peut que très difficilement mordre un être humain car il a une très petite bouche.
-Il chasse la nuit et mange des vers, des fourmis et des œufs d'insectes[2].
+Il chasse la nuit et mange des vers, des fourmis et des œufs d'insectes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Calliophis maculiceps atrofrontalis (Sauvage, 1877)
 Calliophis maculiceps hughi Cochran, 1927
 Calliophis maculiceps maculiceps (Günther, 1858)
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cochran, 1927 : New reptiles and batrachians collected by Dr. Hugh M. Smith in Siam. Proceedings of the Biological Society of Washington, vol. 40, p. 179–192 (texte intégral).
 Deuve, 1961 : Liste annotee des serpents du Laos. Bulletin de la Société Royale des Sciences naturelles du Laos, vol. 1, p. 5-32.
